--- a/SchedulingData/dynamic15/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.56</v>
+        <v>229.82</v>
       </c>
       <c r="D2" t="n">
-        <v>281.52</v>
+        <v>290.68</v>
       </c>
       <c r="E2" t="n">
-        <v>12.008</v>
+        <v>15.892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>204.98</v>
+        <v>219.48</v>
       </c>
       <c r="D3" t="n">
-        <v>257.66</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
-        <v>14.404</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>281.52</v>
+        <v>261.5</v>
       </c>
       <c r="D4" t="n">
-        <v>343.76</v>
+        <v>342.46</v>
       </c>
       <c r="E4" t="n">
-        <v>8.423999999999999</v>
+        <v>10.924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>343.76</v>
+        <v>203.4</v>
       </c>
       <c r="D5" t="n">
-        <v>418</v>
+        <v>282.72</v>
       </c>
       <c r="E5" t="n">
-        <v>5.08</v>
+        <v>12.908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>233.54</v>
+        <v>282.72</v>
       </c>
       <c r="D6" t="n">
-        <v>285.16</v>
+        <v>327.18</v>
       </c>
       <c r="E6" t="n">
-        <v>10.684</v>
+        <v>10.092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>285.16</v>
+        <v>290.68</v>
       </c>
       <c r="D7" t="n">
-        <v>342.44</v>
+        <v>342.24</v>
       </c>
       <c r="E7" t="n">
-        <v>7.076</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>342.44</v>
+        <v>342.46</v>
       </c>
       <c r="D8" t="n">
-        <v>390.88</v>
+        <v>400.26</v>
       </c>
       <c r="E8" t="n">
-        <v>4.832</v>
+        <v>8.763999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>218.36</v>
+        <v>256.66</v>
       </c>
       <c r="D9" t="n">
-        <v>282.46</v>
+        <v>317.36</v>
       </c>
       <c r="E9" t="n">
-        <v>15.804</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>390.88</v>
+        <v>231.54</v>
       </c>
       <c r="D10" t="n">
-        <v>435.58</v>
+        <v>274.56</v>
       </c>
       <c r="E10" t="n">
-        <v>2.472</v>
+        <v>12.204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>200.22</v>
+        <v>317.36</v>
       </c>
       <c r="D11" t="n">
-        <v>236.26</v>
+        <v>377.44</v>
       </c>
       <c r="E11" t="n">
-        <v>15.424</v>
+        <v>5.516</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>418</v>
+        <v>377.44</v>
       </c>
       <c r="D12" t="n">
-        <v>467.32</v>
+        <v>436.86</v>
       </c>
       <c r="E12" t="n">
-        <v>2.748</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>435.58</v>
+        <v>436.86</v>
       </c>
       <c r="D13" t="n">
-        <v>522.14</v>
+        <v>516.35</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -690,59 +690,59 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>522.14</v>
+        <v>516.35</v>
       </c>
       <c r="D14" t="n">
-        <v>592.62</v>
+        <v>589.25</v>
       </c>
       <c r="E14" t="n">
-        <v>26.112</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>282.46</v>
+        <v>327.18</v>
       </c>
       <c r="D15" t="n">
-        <v>366.86</v>
+        <v>378.24</v>
       </c>
       <c r="E15" t="n">
-        <v>10.944</v>
+        <v>7.116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>232.54</v>
+        <v>274.56</v>
       </c>
       <c r="D16" t="n">
-        <v>288.14</v>
+        <v>329.76</v>
       </c>
       <c r="E16" t="n">
-        <v>11.356</v>
+        <v>8.304</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>257.66</v>
+        <v>329.76</v>
       </c>
       <c r="D17" t="n">
-        <v>317.96</v>
+        <v>385.6</v>
       </c>
       <c r="E17" t="n">
-        <v>10.504</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>366.86</v>
+        <v>589.25</v>
       </c>
       <c r="D18" t="n">
-        <v>422.76</v>
+        <v>635.21</v>
       </c>
       <c r="E18" t="n">
-        <v>6.984</v>
+        <v>24.864</v>
       </c>
     </row>
     <row r="19">
@@ -789,188 +789,188 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>317.96</v>
+        <v>385.6</v>
       </c>
       <c r="D19" t="n">
-        <v>372.74</v>
+        <v>458.38</v>
       </c>
       <c r="E19" t="n">
-        <v>6.656</v>
+        <v>1.692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>422.76</v>
+        <v>458.38</v>
       </c>
       <c r="D20" t="n">
-        <v>478.16</v>
+        <v>546.7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288.14</v>
+        <v>268</v>
       </c>
       <c r="D21" t="n">
-        <v>343.14</v>
+        <v>315.98</v>
       </c>
       <c r="E21" t="n">
-        <v>7.976</v>
+        <v>9.212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>372.74</v>
+        <v>342.24</v>
       </c>
       <c r="D22" t="n">
-        <v>420.76</v>
+        <v>403.26</v>
       </c>
       <c r="E22" t="n">
-        <v>3.484</v>
+        <v>8.884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>467.32</v>
+        <v>315.98</v>
       </c>
       <c r="D23" t="n">
-        <v>558.42</v>
+        <v>389.88</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>3.932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>558.42</v>
+        <v>400.26</v>
       </c>
       <c r="D24" t="n">
-        <v>601.1</v>
+        <v>459.58</v>
       </c>
       <c r="E24" t="n">
-        <v>26.932</v>
+        <v>4.972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>343.14</v>
+        <v>635.21</v>
       </c>
       <c r="D25" t="n">
-        <v>405.82</v>
+        <v>697.35</v>
       </c>
       <c r="E25" t="n">
-        <v>4.808</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>592.62</v>
+        <v>389.88</v>
       </c>
       <c r="D26" t="n">
-        <v>679.72</v>
+        <v>462.68</v>
       </c>
       <c r="E26" t="n">
-        <v>21.012</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>405.82</v>
+        <v>462.68</v>
       </c>
       <c r="D27" t="n">
-        <v>463.74</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>1.636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>463.74</v>
+        <v>546.7</v>
       </c>
       <c r="D28" t="n">
-        <v>561.97</v>
+        <v>589.38</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>478.16</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>544.64</v>
+        <v>591.4400000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.036</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>544.64</v>
+        <v>591.4400000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>631.37</v>
+        <v>636.24</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>24.004</v>
       </c>
     </row>
     <row r="31">
@@ -1017,112 +1017,112 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601.1</v>
+        <v>697.35</v>
       </c>
       <c r="D31" t="n">
-        <v>662.14</v>
+        <v>729.1900000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>23.428</v>
+        <v>18.736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>420.76</v>
+        <v>459.58</v>
       </c>
       <c r="D32" t="n">
-        <v>480.79</v>
+        <v>516.66</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>480.79</v>
+        <v>516.66</v>
       </c>
       <c r="D33" t="n">
-        <v>553.59</v>
+        <v>611.39</v>
       </c>
       <c r="E33" t="n">
-        <v>26.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>236.26</v>
+        <v>403.26</v>
       </c>
       <c r="D34" t="n">
-        <v>278</v>
+        <v>465.66</v>
       </c>
       <c r="E34" t="n">
-        <v>12.88</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>278</v>
+        <v>589.38</v>
       </c>
       <c r="D35" t="n">
-        <v>329.06</v>
+        <v>664.9400000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>8.904</v>
+        <v>23.456</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>662.14</v>
+        <v>378.24</v>
       </c>
       <c r="D36" t="n">
-        <v>717.04</v>
+        <v>438.64</v>
       </c>
       <c r="E36" t="n">
-        <v>20.568</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>329.06</v>
+        <v>438.64</v>
       </c>
       <c r="D37" t="n">
-        <v>393.94</v>
+        <v>497.5</v>
       </c>
       <c r="E37" t="n">
-        <v>5.056</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38">
@@ -1150,226 +1150,207 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>393.94</v>
+        <v>497.5</v>
       </c>
       <c r="D38" t="n">
-        <v>447.8</v>
+        <v>578.36</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>447.8</v>
+        <v>636.24</v>
       </c>
       <c r="D39" t="n">
-        <v>532.8</v>
+        <v>682.8200000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>20.476</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>717.04</v>
+        <v>664.9400000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>783</v>
+        <v>707.96</v>
       </c>
       <c r="E40" t="n">
-        <v>17.592</v>
+        <v>20.284</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>532.8</v>
+        <v>682.8200000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>602.72</v>
+        <v>752.92</v>
       </c>
       <c r="E41" t="n">
-        <v>25.688</v>
+        <v>17.096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>561.97</v>
+        <v>578.36</v>
       </c>
       <c r="D42" t="n">
-        <v>644.35</v>
+        <v>651.16</v>
       </c>
       <c r="E42" t="n">
-        <v>25.912</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>602.72</v>
+        <v>611.39</v>
       </c>
       <c r="D43" t="n">
-        <v>655.22</v>
+        <v>650.63</v>
       </c>
       <c r="E43" t="n">
-        <v>23.528</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>644.35</v>
+        <v>651.16</v>
       </c>
       <c r="D44" t="n">
-        <v>713.67</v>
+        <v>692.1</v>
       </c>
       <c r="E44" t="n">
-        <v>23.58</v>
+        <v>23.396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>631.37</v>
+        <v>465.66</v>
       </c>
       <c r="D45" t="n">
-        <v>685.17</v>
+        <v>531.8</v>
       </c>
       <c r="E45" t="n">
-        <v>26.82</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>679.72</v>
+        <v>531.8</v>
       </c>
       <c r="D46" t="n">
-        <v>748.3200000000001</v>
+        <v>614.92</v>
       </c>
       <c r="E46" t="n">
-        <v>18.732</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>685.17</v>
+        <v>707.96</v>
       </c>
       <c r="D47" t="n">
-        <v>747.47</v>
+        <v>757.28</v>
       </c>
       <c r="E47" t="n">
-        <v>24.66</v>
+        <v>17.952</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>553.59</v>
+        <v>614.92</v>
       </c>
       <c r="D48" t="n">
-        <v>624.95</v>
+        <v>679.84</v>
       </c>
       <c r="E48" t="n">
-        <v>22.824</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond29</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>624.95</v>
-      </c>
-      <c r="D49" t="n">
-        <v>674.41</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.008</v>
+        <v>27.668</v>
       </c>
     </row>
   </sheetData>
